--- a/mortalite-cause-deces/table-mortalite/quotient.xlsx
+++ b/mortalite-cause-deces/table-mortalite/quotient.xlsx
@@ -24,19 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>age</t>
   </si>
   <si>
-    <t>quotient</t>
+    <t>hommes</t>
+  </si>
+  <si>
+    <t>femmes</t>
+  </si>
+  <si>
+    <t>tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +50,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,15 +86,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -347,860 +410,1496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2.5854607299999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>419</v>
+      </c>
+      <c r="C2" s="1">
+        <v>350</v>
+      </c>
+      <c r="D2" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.397940009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.255272505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.0791812460000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.0413926849999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.95424250899999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.90308998699999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.84509803999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.84509803999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.84509803999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.84509803999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.84509803999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.95424250899999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.0413926849999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.0791812460000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.1461280359999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.255272505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.301029996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.4913616940000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.556302501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.5682017239999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.6127838569999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.62324929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.6127838569999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>1.6334684559999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1.6434526759999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>1.653212514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>1.6720978580000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>1.7075701759999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>1.72427587</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>1.7403626889999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>1.7634279939999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>1.7781512500000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>1.826074803</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>1.8573324959999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>1.8920946030000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>1.903089987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>113</v>
+      </c>
+      <c r="C38" s="1">
+        <v>47</v>
+      </c>
+      <c r="D38" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>1.9444826719999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>1.977723605</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>131</v>
+      </c>
+      <c r="C40" s="1">
+        <v>58</v>
+      </c>
+      <c r="D40" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>2.025305865</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>144</v>
+      </c>
+      <c r="C41" s="1">
+        <v>67</v>
+      </c>
+      <c r="D41" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>2.0453229789999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>149</v>
+      </c>
+      <c r="C42" s="1">
+        <v>70</v>
+      </c>
+      <c r="D42" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>2.0863598310000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>162</v>
+      </c>
+      <c r="C43" s="1">
+        <v>81</v>
+      </c>
+      <c r="D43" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>2.1238516409999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>179</v>
+      </c>
+      <c r="C44" s="1">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>2.1643528559999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>194</v>
+      </c>
+      <c r="C45" s="1">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>2.190331698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>205</v>
+      </c>
+      <c r="C46" s="1">
+        <v>103</v>
+      </c>
+      <c r="D46" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>2.2430380489999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>234</v>
+      </c>
+      <c r="C47" s="1">
+        <v>115</v>
+      </c>
+      <c r="D47" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>2.2718416069999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>246</v>
+      </c>
+      <c r="C48" s="1">
+        <v>125</v>
+      </c>
+      <c r="D48" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>2.3201462859999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>275</v>
+      </c>
+      <c r="C49" s="1">
+        <v>140</v>
+      </c>
+      <c r="D49" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>2.3636119799999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>305</v>
+      </c>
+      <c r="C50" s="1">
+        <v>154</v>
+      </c>
+      <c r="D50" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>2.4048337169999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>330</v>
+      </c>
+      <c r="C51" s="1">
+        <v>175</v>
+      </c>
+      <c r="D51" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>2.4487063199999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>368</v>
+      </c>
+      <c r="C52" s="1">
+        <v>193</v>
+      </c>
+      <c r="D52" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>2.4941545939999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>406</v>
+      </c>
+      <c r="C53" s="1">
+        <v>216</v>
+      </c>
+      <c r="D53" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>2.532754379</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>448</v>
+      </c>
+      <c r="C54" s="1">
+        <v>231</v>
+      </c>
+      <c r="D54" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>2.5728716020000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>492</v>
+      </c>
+      <c r="C55" s="1">
+        <v>254</v>
+      </c>
+      <c r="D55" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>2.6042260530000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>529</v>
+      </c>
+      <c r="C56" s="1">
+        <v>273</v>
+      </c>
+      <c r="D56" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>2.6384892569999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>574</v>
+      </c>
+      <c r="C57" s="1">
+        <v>294</v>
+      </c>
+      <c r="D57" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>2.6794278970000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>639</v>
+      </c>
+      <c r="C58" s="1">
+        <v>315</v>
+      </c>
+      <c r="D58" s="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>2.7160033440000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>694</v>
+      </c>
+      <c r="C59" s="1">
+        <v>345</v>
+      </c>
+      <c r="D59" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>2.7535830589999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>759</v>
+      </c>
+      <c r="C60" s="1">
+        <v>374</v>
+      </c>
+      <c r="D60" s="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>2.7888751159999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>822</v>
+      </c>
+      <c r="C61" s="1">
+        <v>409</v>
+      </c>
+      <c r="D61" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>2.8280150640000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>907</v>
+      </c>
+      <c r="C62" s="1">
+        <v>440</v>
+      </c>
+      <c r="D62" s="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>2.8692317200000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C63" s="1">
+        <v>478</v>
+      </c>
+      <c r="D63" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>2.9068735349999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>1095</v>
+      </c>
+      <c r="C64" s="1">
+        <v>522</v>
+      </c>
+      <c r="D64" s="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>2.9439888750000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>1197</v>
+      </c>
+      <c r="C65" s="1">
+        <v>567</v>
+      </c>
+      <c r="D65" s="1">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>2.9740509030000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>1279</v>
+      </c>
+      <c r="C66" s="1">
+        <v>613</v>
+      </c>
+      <c r="D66" s="1">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>3.0073209529999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>1383</v>
+      </c>
+      <c r="C67" s="1">
+        <v>663</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>3.0457140589999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>1528</v>
+      </c>
+      <c r="C68" s="1">
+        <v>710</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>3.0663259250000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>1599</v>
+      </c>
+      <c r="C69" s="1">
+        <v>752</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>3.0976043290000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>1719</v>
+      </c>
+      <c r="C70" s="1">
+        <v>811</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>3.127104798</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>1833</v>
+      </c>
+      <c r="C71" s="1">
+        <v>878</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>3.1598678470000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>1962</v>
+      </c>
+      <c r="C72" s="1">
+        <v>966</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>3.1906117979999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>2106</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1042</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>3.2208922489999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>2264</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1117</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>3.256236533</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>2456</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1218</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>3.2968844759999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>2664</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1375</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>3.3358589109999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>2903</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1525</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>3.3807537710000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>3213</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1704</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>3.4211101300000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>3496</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1907</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>3.463594402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>3857</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2115</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>3.5122840630000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>4304</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2391</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>3.559906625</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>4728</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2748</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>3.6095944090000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>5251</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3140</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>3.66143405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>5885</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3584</v>
+      </c>
+      <c r="D84" s="1">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>3.7164207340000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>6653</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4115</v>
+      </c>
+      <c r="D85" s="1">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>3.772468403</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>7544</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4733</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>3.8266577919999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>8517</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5423</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>3.8844554960000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>9660</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6290</v>
+      </c>
+      <c r="D88" s="1">
+        <v>7664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>3.944877306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>11072</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7307</v>
+      </c>
+      <c r="D89" s="1">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>4.0002170929999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>12541</v>
+      </c>
+      <c r="C90" s="1">
+        <v>8392</v>
+      </c>
+      <c r="D90" s="1">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>4.0564855929999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>14199</v>
+      </c>
+      <c r="C91" s="1">
+        <v>9682</v>
+      </c>
+      <c r="D91" s="1">
+        <v>11389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>4.1138431190000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>16010</v>
+      </c>
+      <c r="C92" s="1">
+        <v>11259</v>
+      </c>
+      <c r="D92" s="1">
+        <v>12997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>4.1708482040000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>18023</v>
+      </c>
+      <c r="C93" s="1">
+        <v>13071</v>
+      </c>
+      <c r="D93" s="1">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>4.2217792569999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>20373</v>
+      </c>
+      <c r="C94" s="1">
+        <v>14754</v>
+      </c>
+      <c r="D94" s="1">
+        <v>16664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>4.2692092989999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>22500</v>
+      </c>
+      <c r="C95" s="1">
+        <v>16706</v>
+      </c>
+      <c r="D95" s="1">
+        <v>18587</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>4.3167668700000004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>25055</v>
+      </c>
+      <c r="C96" s="1">
+        <v>18806</v>
+      </c>
+      <c r="D96" s="1">
+        <v>20738</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>4.3585819969999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>27309</v>
+      </c>
+      <c r="C97" s="1">
+        <v>20986</v>
+      </c>
+      <c r="D97" s="1">
+        <v>22834</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>4.4023301760000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>30021</v>
+      </c>
+      <c r="C98" s="1">
+        <v>23443</v>
+      </c>
+      <c r="D98" s="1">
+        <v>25254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>4.439790436</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>32354</v>
+      </c>
+      <c r="C99" s="1">
+        <v>25853</v>
+      </c>
+      <c r="D99" s="1">
+        <v>27529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>4.4748279259999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>34163</v>
+      </c>
+      <c r="C100" s="1">
+        <v>28473</v>
+      </c>
+      <c r="D100" s="1">
+        <v>29842</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101">
-        <v>4.5032048759999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>36422</v>
+      </c>
+      <c r="C101" s="1">
+        <v>30525</v>
+      </c>
+      <c r="D101" s="1">
+        <v>31857</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102">
-        <v>4.5402919260000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>39340</v>
+      </c>
+      <c r="C102" s="1">
+        <v>33458</v>
+      </c>
+      <c r="D102" s="1">
+        <v>34697</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>4.5694558440000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>42015</v>
+      </c>
+      <c r="C103" s="1">
+        <v>35912</v>
+      </c>
+      <c r="D103" s="1">
+        <v>37107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104">
-        <v>4.5901281950000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>41678</v>
+      </c>
+      <c r="C104" s="1">
+        <v>38308</v>
+      </c>
+      <c r="D104" s="1">
+        <v>38916</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105">
-        <v>4.6095303809999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>40467</v>
+      </c>
+      <c r="C105" s="1">
+        <v>40741</v>
+      </c>
+      <c r="D105" s="1">
+        <v>40694</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>4.6089964429999997</v>
+      <c r="B106" s="2">
+        <v>33803</v>
+      </c>
+      <c r="C106" s="2">
+        <v>42074</v>
+      </c>
+      <c r="D106" s="2">
+        <v>40644</v>
       </c>
     </row>
   </sheetData>
